--- a/output/tesla_model_x.xlsx
+++ b/output/tesla_model_x.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
@@ -494,179 +494,179 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>18:32:11</t>
+          <t>11:39:54</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.900</t>
+          <t xml:space="preserve"> 36.400</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>64.629 km</t>
+          <t>193.442 km</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100kWh Dual Motor Performance</t>
+          <t>100kWh Dual Motor</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-performance-elettrica-grigio-6d948551-6833-48c2-8259-b025bc621d6d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-elettrica-grigio-b53ba5db-d887-430a-bd8f-ccce56b4a94c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.900</t>
+          <t xml:space="preserve"> 45.800</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>06/2017</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57.000 km</t>
+          <t>131.700 km</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Performance Dual Motor awd</t>
+          <t>Model X 100 D</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-dual-motor-awd-elettrica-bianco-d9f3ab94-74c4-4df9-b1ac-8247698224f0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-elettrica-nero-643e234f-d5d1-4245-9c99-74ed2c766016</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 64.900</t>
+          <t xml:space="preserve"> 65.900</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>03/2020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>669 CV</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>57.000 km</t>
+          <t>30.838 km</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LONG RANGE AWD 6 POSTI FULL KM 57000!</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-6-posti-full-km-57000-elettrica-nero-f9fd1f70-8e37-4dcf-9a1d-49859ee1364b</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-elettrica-bianco-91c83bd5-f246-4c78-a56b-0e8555158aa3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 63.000</t>
+          <t xml:space="preserve"> 44.500</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>840 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>140.000 km</t>
+          <t>147.607 km</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Model X P100 D Ludicrous Raven</t>
+          <t>Model X P100 D</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-p100-d-ludicrous-raven-elettrica-grigio-62ebccf8-91ee-4584-ae4e-a49105b4b095</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-p100-d-elettrica-bianco-3574085a-659f-4d6a-80d9-ca23c11d079c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.490</t>
+          <t xml:space="preserve"> 36.900</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>08/2018</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>193.442 km</t>
+          <t>111.986 km</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100kWh Dual Motor</t>
+          <t>75 D</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-elettrica-grigio-1e6bdf5e-ec4b-4892-8dd5-2d216f27ef46</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-75-d-elettrica-blu-azzurro-d3192f93-5f73-4de2-91f0-f9b1af30e261</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58.890</t>
+          <t xml:space="preserve"> 59.900,-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,29 +676,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>60.285 km</t>
+          <t>58.731 km</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100kWh Dual Motor</t>
+          <t>Long Range awd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-elettrica-nero-0589d03d-4ad6-4c10-834c-e40391e12fa2</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-elettrica-grigio-b539919e-a152-4ff8-b04c-3b5871efcbf6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 63.900</t>
+          <t xml:space="preserve"> 64.900</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,93 +708,93 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>72.000 km</t>
+          <t>57.000 km</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Model X 100 D dual motor awd - 510cv  AUTOPILOT</t>
+          <t>LONG RANGE AWD 6 POSTI FULL KM 57000!</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-dual-motor-awd-510cv-autopilot-elettrica-bianco-7bfa1978-ec8a-4fca-8180-7018b7f6d9fd</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-6-posti-full-km-57000-elettrica-nero-f9fd1f70-8e37-4dcf-9a1d-49859ee1364b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.990</t>
+          <t xml:space="preserve"> 55.900</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>120.046 km</t>
+          <t>57.000 km</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100KWH DUAL MOTOR</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-elettrica-nero-416f077e-f87d-49e2-aab2-db38cd8dac1c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-dual-motor-awd-elettrica-bianco-d9f3ab94-74c4-4df9-b1ac-8247698224f0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51.900</t>
+          <t xml:space="preserve"> 43.900</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>10/2018</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>57.000 km</t>
+          <t>120.046 km</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Model X Performance Dual Motor awd</t>
+          <t>100KWH DUAL MOTOR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-dual-motor-awd-elettrica-bianco-cfc26769-ed0a-440f-b740-3f8fe432a1d3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-elettrica-nero-2b27a4c8-4bfd-4ec3-870a-f0c29d1780ec</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53.500</t>
+          <t xml:space="preserve"> 71.900</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>01/2019</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -804,273 +804,273 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.000 km</t>
+          <t>72.000 km</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Model X 100 D Long Range RAVEN FINANZIABILE</t>
+          <t>Model X 100 D dual motor awd - 510cv  AUTOPILOT</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-long-range-raven-finanziabile-elettrica-grigio-ece8f1ca-abb0-454b-97dc-fb5c67f006b4</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-dual-motor-awd-510cv-autopilot-elettrica-bianco-7bfa1978-ec8a-4fca-8180-7018b7f6d9fd</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 65.000</t>
+          <t xml:space="preserve"> 63.000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>06/2019</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>840 CV</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>100.000 km</t>
+          <t>140.000 km</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Model X Performance Dual Motor awd</t>
+          <t>Model X P100 D Ludicrous Raven</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-dual-motor-awd-elettrica-bianco-36958a8c-ec3c-4472-85f4-0ef939a12065</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-p100-d-ludicrous-raven-elettrica-grigio-62ebccf8-91ee-4584-ae4e-a49105b4b095</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 119.999</t>
+          <t xml:space="preserve"> 58.500</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>05/2019</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>020 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.533 km</t>
+          <t>85.000 km</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Model X Performance Dual Motor Plaid awd (209)</t>
+          <t>Model X Long Range Plus awd</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-dual-motor-plaid-awd-209-elettrica-grigio-b80dd700-da7e-4c77-8f5c-996d983858d4</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-elettrica-grigio-27a62ef0-5efe-4d70-afbe-777eba61746e</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.900</t>
+          <t xml:space="preserve"> 38.900</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>11/2017</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>245 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>67.450 km</t>
+          <t>176.000 km</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Performance AWD Raven 7Posti- FSD- gancio traino</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-awd-raven-7posti-fsd-gancio-traino-elettrica-nero-1cd97414-0615-4630-8c10-89db50353de0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-grigio-08e66830-aeca-456e-97a5-04391f54d203</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 61.490</t>
+          <t xml:space="preserve"> 67.000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>396 CV</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>69.500 km</t>
+          <t>84.168 km</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Performance Ludicrous AWD</t>
+          <t>100 D Supercharger GRATIS Illimitato 6 posti</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-ludicrous-awd-elettrica-bianco-1b2df535-3b9b-4193-899e-2aab897492a7</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-supercharger-gratis-illimitato-6-posti-elettrica-nero-e303a0f7-d15e-43e1-938b-cb64fd187598</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.990</t>
+          <t xml:space="preserve"> 57.900</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>168.000 km</t>
+          <t>97.500 km</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100kWh Dual Motor</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-elettrica-nero-c5012a09-077f-4307-a6d1-8263aa25fdb0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-dc7daca4-ad0f-48b7-9ce0-0d710e54d8db</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66.800</t>
+          <t xml:space="preserve"> 38.900</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>01/2017</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>669 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30.838 km</t>
+          <t>198.500 km</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Long Range AWD</t>
+          <t>Model X 90 kWh Dual Motor Performance</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-elettrica-bianco-91c83bd5-f246-4c78-a56b-0e8555158aa3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-90-kwh-dual-motor-performance-elettrica-nero-f2adf0e8-ede9-42a2-85da-ccd6ac6011e9</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51.900</t>
+          <t xml:space="preserve"> 47.900</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>02/2019</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>517 CV</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>72.316 km</t>
+          <t>24.000 km</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ROOF 100kWh Dual Motor</t>
+          <t>158 KW 215 CV LR</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-roof-100kwh-dual-motor-elettrica-nero-f560f2df-7926-4585-ba3f-7ee618f99d09</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-158-kw-215-cv-lr-elettrica-nero-ebfcb14a-cc20-46cd-a616-a490c7cb961d</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 68.000</t>
+          <t xml:space="preserve"> 39.000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>12/2016</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>469 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>39.195 km</t>
+          <t>143.000 km</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Performance Ludicrous 7 posti</t>
+          <t>90kWh Signature Performance Dual Motor</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-ludicrous-7-posti-elettrica-grigio-04804250-5a33-4c5b-aab1-2ba0f7846c50</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-90kwh-signature-performance-dual-motor-elettrica-verde-50d6de96-d92a-43d3-b9d7-b5c8ab2067cc</t>
         </is>
       </c>
       <c r="N19" s="1" t="n"/>
@@ -1078,104 +1078,108 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 129.000</t>
+          <t xml:space="preserve"> 53.900</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>06/2019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>485 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30.000 km</t>
+          <t>71.651 km</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Plaid</t>
+          <t>Model X Long Range Plus awd #AUTOPILOT AVANZATO#</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-plaid-elettrica-nero-311cbc75-1055-453c-a305-83d3e11e36b5</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-autopilot-avanzato-elettrica-bianco-c90e5621-0eef-45f2-85c0-7b187698abd6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.000</t>
+          <t xml:space="preserve"> 43.990</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>06/2017</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>500 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>149.000 km</t>
+          <t>141.000 km</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>90kWh Dual Motor 6 Posti Autopilot Avanzato</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-grigio-63af48f8-a8d1-4e52-9768-4ca49c88cdf6</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-90kwh-dual-motor-6-posti-autopilot-avanzato-elettrica-bianco-34708c8b-6186-4437-99f1-3e51eabd6b91</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 129.500</t>
+          <t xml:space="preserve"> 55.000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>05/2020</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>020 CV</t>
+          <t>253 CV</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.850 km</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>72.000 km</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dual Motor Long Range Premium 100KW 6 posti</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-elettrica-nero-acd2cb00-f065-4b42-8ad3-98376eed8612</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-dual-motor-long-range-premium-100kw-6-posti-elettrica-bianco-22aa9ae9-0632-4cc2-b32e-250bd777aa7c</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51.000</t>
+          <t xml:space="preserve"> 56.000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>12/2020</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1185,437 +1189,445 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>61.000 km</t>
+          <t>46.000 km</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Long Range Plus awd</t>
+          <t>Model X Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-plus-awd-elettrica-nero-ace5ba97-f9e9-4b87-bfdd-74803ab04933</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-dual-motor-awd-elettrica-bianco-ed839a94-f0b3-4aa0-8f25-4e624dc2eb59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53.900</t>
+          <t xml:space="preserve"> 49.400</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>07/2018</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>469 CV</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>71.651 km</t>
+          <t>64.629 km</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Model X Long Range Plus awd #AUTOPILOT AVANZATO#</t>
+          <t>100kWh Dual Motor Performance</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-autopilot-avanzato-elettrica-bianco-c90e5621-0eef-45f2-85c0-7b187698abd6</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-performance-elettrica-grigio-f7f9bb4b-c277-4885-927c-ce08640e7f24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.500</t>
+          <t xml:space="preserve"> 50.000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09/2016</t>
+          <t>12/2019</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>332 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>160.000 km</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>104.000 km</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Long Range Plus awd 7p.ti</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-elettrica-bianco-16f6e529-ba8e-4d0f-8af7-89ad038a783c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-plus-awd-7p-ti-elettrica-bianco-7c98a6f7-868f-49fd-97bd-cbd6ee5df1eb</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.000</t>
+          <t xml:space="preserve"> 68.000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>10/2020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>469 CV</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>144.000 km</t>
+          <t>39.195 km</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Model X Long Range Plus awd</t>
+          <t>Performance Ludicrous 7 posti</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-elettrica-nero-3714c832-07d8-4865-b4bf-6a049342d681</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-ludicrous-7-posti-elettrica-grigio-04804250-5a33-4c5b-aab1-2ba0f7846c50</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.000</t>
+          <t xml:space="preserve"> 43.900</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>06/2018</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>140.000 km</t>
+          <t>133.194 km</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Model X 90kWh Dual Motor</t>
+          <t>100kWh Dual Motor</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-90kwh-dual-motor-elettrica-bianco-e2783039-5d05-43d3-b6d4-d1cf430b4088</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-elettrica-bianco-9ab7179d-f26b-4bac-80e8-75cbe1af714a</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 98.000</t>
+          <t xml:space="preserve"> 48.999</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>06/2019</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>296 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6.230 km</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>69.500 km</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Performance Ludicrous AWD</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-elettrica-nero-4e6d9277-5244-4936-9712-b13b65ca8be3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-ludicrous-awd-elettrica-bianco-1b2df535-3b9b-4193-899e-2aab897492a7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.900</t>
+          <t xml:space="preserve"> 119.999</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>01/2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>020 CV</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>80.386 km</t>
+          <t>4.533 km</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P100 D</t>
+          <t>Model X Performance Dual Motor Plaid awd (209)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-p100-d-elettrica-dca901e3-05dd-4877-a6ae-ff234e9e0635</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-dual-motor-plaid-awd-209-elettrica-grigio-b80dd700-da7e-4c77-8f5c-996d983858d4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 68.000</t>
+          <t xml:space="preserve"> 45.000</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>06/2020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>700 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>180.000 km</t>
+          <t>160.000 km</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P100DL SUPERCHARGER GRATUITO A VITAAAAA</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-p100dl-supercharger-gratuito-a-vitaaaaa-elettrica-nero-0aa44648-f2a9-4a41-a1ff-c9b0b87cdc1a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-dual-motor-awd-elettrica-blu-azzurro-65dad2df-3cc8-4b26-bb9d-e5b592951b5c</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.900</t>
+          <t xml:space="preserve"> 120.000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>06/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>025 CV</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>96.500 km</t>
+          <t>7.500 km</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>Plaid 6 posti 1025cv</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-5f3fc069-8258-4468-8dda-fa0764c9089e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-plaid-6-posti-1025cv-elettrica-nero-5d370667-ee94-45a8-8d85-7b7ca392e46f</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 105.000</t>
+          <t xml:space="preserve"> 45.000</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>05/2017</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>485 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21.000 km</t>
+          <t>140.000 km</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Performance Dual Motor Plaid awd 6p.ti</t>
+          <t>Model X 90kWh Dual Motor</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-dual-motor-plaid-awd-6p-ti-elettrica-nero-55f2a55c-6d1f-46de-88dc-f440560af64a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-90kwh-dual-motor-elettrica-bianco-e2783039-5d05-43d3-b6d4-d1cf430b4088</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 61.900</t>
+          <t xml:space="preserve"> 36.900</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>08/2018</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>253 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>63.000 km</t>
+          <t>111.986 km</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Long Range AWD *GUIDA AUTONOMA*</t>
+          <t>75 D</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-guida-autonoma-elettrica-bianco-09088a57-d499-411b-a022-b0363307c316</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-75-d-elettrica-blu-azzurro-8666e689-ccbd-4cf8-ab60-8dabe0fe2113</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 129.000</t>
+          <t xml:space="preserve"> 64.900</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>01/2021</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>485 CV</t>
+          <t>245 CV</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>30.000 km</t>
+          <t>45.000 km</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Plaid</t>
+          <t>DUAL MOTOR - IVA 22% X Performance AWD</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-plaid-elettrica-nero-c97f3032-d20c-49de-bce3-7486b356d8bb</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-dual-motor-iva-22-x-performance-awd-elettrica-blu-azzurro-bb9a4314-8a24-4c0f-9e26-0b454c4bad00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 69.999</t>
+          <t xml:space="preserve"> 41.000</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>12/2018</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>396 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>84.168 km</t>
+          <t>135.000 km</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>100 D Supercharger Illimitato</t>
+          <t>Model X 100 D</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-supercharger-illimitato-elettrica-nero-e303a0f7-d15e-43e1-938b-cb64fd187598</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-elettrica-grigio-ab43eb86-3a90-464a-b3ad-1a28013770a0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 69.000</t>
+          <t xml:space="preserve"> 57.470</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>12/2020</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>245 CV</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.228 km</t>
+          <t>57.765 km</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>D 100 D</t>
+          <t>Performance AWD 7 pt</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-d-100-d-elettrica-grigio-1f61c859-3c98-4e86-a688-b1eb26b64c9c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-awd-7-pt-elettrica-rosso-8eba301b-c34a-4f86-b0e2-0fe63a979360</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.000</t>
+          <t xml:space="preserve"> 65.000</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>07/2017</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1625,93 +1637,93 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>135.000 km</t>
+          <t>2.228 km</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Model X 100 D</t>
+          <t>D 100 D</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-elettrica-grigio-ab43eb86-3a90-464a-b3ad-1a28013770a0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-d-100-d-elettrica-grigio-1f61c859-3c98-4e86-a688-b1eb26b64c9c</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57.950</t>
+          <t xml:space="preserve"> 49.999</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>01/2019</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>241 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>75.000 km</t>
+          <t>100.000 km</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Long Range AWD 7Posti con Gancio Traino</t>
+          <t>100 D 4WD 6 POSTI IVA ESPOSTA  *106.000 KM REALI*</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-7posti-con-gancio-traino-elettrica-bianco-734b7147-9740-403a-87fc-be43a44b5d22</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-4wd-6-posti-iva-esposta-106-000-km-reali-elettrica-bianco-4fa1c694-0a9b-45e0-8fd1-bbbd0a9c4045</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 75.000</t>
+          <t xml:space="preserve"> 45.390</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01/2021</t>
+          <t>03/2020</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>253 CV</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>65.000 km</t>
+          <t>213.000 km</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Performance Ludicrous awd 6p.ti</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-ludicrous-awd-6p-ti-elettrica-nero-49e04b4d-058e-48b2-ba0d-abd7cc904e71</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-elettrica-bianco-bc74e853-1f6d-4554-bb17-e91d0986e3b9</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.890</t>
+          <t xml:space="preserve"> 51.900</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>09/2019</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1721,125 +1733,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>133.194 km</t>
+          <t>86.400 km</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>100 kWh Dual Motor</t>
+          <t>Model X 100 D Long Range RAVEN FINANZIABILE</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-kwh-dual-motor-elettrica-bianco-dc01a17d-ea9b-47d5-bf0f-0824bc3afea0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-long-range-raven-finanziabile-elettrica-grigio-ece8f1ca-abb0-454b-97dc-fb5c67f006b4</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.000</t>
+          <t xml:space="preserve"> 98.850</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>485 CV</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>118.000 km</t>
+          <t>15.500 km</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Model X P100 D</t>
+          <t>PLAID|1020 CV|GUIDA AUTONOMA MASSIMO POTENZIALE</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-p100-d-elettrica-nero-cd737dc7-06fa-4cf7-a62b-16dd8c7d645d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-plaid-1020-cv-guida-autonoma-massimo-potenziale-elettrica-bianco-4b798517-7867-4806-a0b6-e7ed467fcbcc</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.000</t>
+          <t xml:space="preserve"> 98.000</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>06/2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>253 CV</t>
+          <t>296 CV</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>73.000 km</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Dual Motor Long Range AWD</t>
-        </is>
-      </c>
+          <t>6.230 km</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-dual-motor-long-range-awd-elettrica-bianco-495e7d9e-a6a8-4569-ae18-71d7a7229859</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-elettrica-nero-4e6d9277-5244-4936-9712-b13b65ca8be3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53.490</t>
+          <t xml:space="preserve"> 52.000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09/2019</t>
+          <t>07/2019</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>865 CV</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>84.000 km</t>
+          <t>179.879 km</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Model X 100kWh D Long</t>
+          <t>Model X Performance-Ludicrous Dual Motor 7posti</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100kwh-d-long-elettrica-grigio-4d908765-eeb2-499d-815f-1d58f85cf22c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-ludicrous-dual-motor-7posti-elettrica-bianco-cc7a421c-11c4-4e2b-8c66-97429044b30e</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 65.900,-1</t>
+          <t xml:space="preserve"> 48.000</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>03/2020</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1849,145 +1857,145 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>58.731 km</t>
+          <t>144.000 km</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Long Range awd</t>
+          <t>Model X Long Range Plus awd</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-elettrica-grigio-b539919e-a152-4ff8-b04c-3b5871efcbf6</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-elettrica-nero-3714c832-07d8-4865-b4bf-6a049342d681</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 71.900</t>
+          <t xml:space="preserve"> 57.950</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>12/2019</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>241 CV</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>43.000 km</t>
+          <t>75.000 km</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Model X P100 D</t>
+          <t>Long Range AWD 7Posti con Gancio Traino</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-p100-d-elettrica-nero-f09c17bd-863d-47ca-8583-6b5e17b87718</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-7posti-con-gancio-traino-elettrica-bianco-734b7147-9740-403a-87fc-be43a44b5d22</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42.000</t>
+          <t xml:space="preserve"> 129.000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>06/2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>485 CV</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94.500 km</t>
+          <t>30.000 km</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>75 D</t>
+          <t>Plaid</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-75-d-elettrica-nero-ad22d52d-fa21-4095-a1de-bdea665202fa</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-plaid-elettrica-nero-0158125f-8fb2-430e-a1ab-2e7bf588a5e8</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 78.000</t>
+          <t xml:space="preserve"> 71.900</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>06/2018</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>612 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>107.396 km</t>
+          <t>43.000 km</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>P100 D</t>
+          <t>Model X P100 D</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-p100-d-elettrica-grigio-cc58f01f-f139-441f-91e1-26b6782b5e56</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-p100-d-elettrica-nero-f09c17bd-863d-47ca-8583-6b5e17b87718</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.500</t>
+          <t xml:space="preserve"> 42.900</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>11/2018</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>500 CV</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>131.700 km</t>
+          <t>149.000 km</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Model X 100 D</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-elettrica-nero-643e234f-d5d1-4245-9c99-74ed2c766016</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-grigio-63af48f8-a8d1-4e52-9768-4ca49c88cdf6</t>
         </is>
       </c>
     </row>
@@ -1999,7 +2007,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2009,184 +2017,184 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>72.316 km</t>
+          <t>57.000 km</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ROOF 100kWh Dual Motor</t>
+          <t>Model X Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-roof-100kwh-dual-motor-elettrica-nero-fd966f5f-fd16-4d66-a10b-4b93bce91140</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-dual-motor-awd-elettrica-bianco-cfc26769-ed0a-440f-b740-3f8fe432a1d3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57.900</t>
+          <t xml:space="preserve"> 51.900</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>06/2017</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>97.500 km</t>
+          <t>72.316 km</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>ROOF 100kWh Dual Motor</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-dc7daca4-ad0f-48b7-9ce0-0d710e54d8db</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-roof-100kwh-dual-motor-elettrica-nero-f560f2df-7926-4585-ba3f-7ee618f99d09</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57.000</t>
+          <t xml:space="preserve"> 46.900</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>253 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>105.000 km</t>
+          <t>96.500 km</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Model X Long Range AWD  100KW</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-awd-100kw-elettrica-bianco-63388d0a-5d9e-463f-aaa3-dc8b7cfcfe86</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-8e61d87b-8766-4bc6-926e-689d8928c4a6</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.900</t>
+          <t xml:space="preserve"> 54.950</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07/2017</t>
+          <t>01/2020</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>96.000 km</t>
+          <t>63.000 km</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Model X 100 D*6 POSTI*DUAL MOTOR*</t>
+          <t>Model X Long Range Plus awd</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-6-posti-dual-motor-elettrica-blu-azzurro-c2dc2648-aadb-439e-85f9-53ac75eeddaf</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-elettrica-bianco-ebdac00b-a322-4e90-a412-fb1ab17cbfe9</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.999</t>
+          <t xml:space="preserve"> 57.400</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>05/2019</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>469 CV</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>100.000 km</t>
+          <t>88.345 km</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>100 D 4WD 6 POSTI IVA ESPOSTA  *106.000 KM REALI*</t>
+          <t>100 kWh Dual Motor Performance</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-4wd-6-posti-iva-esposta-106-000-km-reali-elettrica-bianco-c749c608-898b-447d-8e87-908e3f7c74e2</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-kwh-dual-motor-performance-elettrica-bianco-916fef21-d151-40f1-b722-f4060b4aad4b</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 86.000</t>
+          <t xml:space="preserve"> 43.900</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>06/2018</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>33.500 km</t>
+          <t>119.412 km</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Model X Long Range Plus awd</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-elettrica-rosso-cabfe0bc-04c1-4166-aa78-87cfffbb0189</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-nero-b09454e4-470e-4b4f-a43b-4b1f758bbf79</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 69.000</t>
+          <t xml:space="preserve"> 42.000</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2196,34 +2204,34 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>69.000 km</t>
+          <t>94.500 km</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>100D Dual Motor Perform *GARANZIA UFFICIALE TESLA*</t>
+          <t>75 D</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100d-dual-motor-perform-garanzia-ufficiale-tesla-elettrica-nero-a6609a5d-fbb6-44d5-be39-458e86a578c1</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-75-d-elettrica-nero-ad22d52d-fa21-4095-a1de-bdea665202fa</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.900</t>
+          <t xml:space="preserve"> 51.900</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>06/2017</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2233,125 +2241,125 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>198.500 km</t>
+          <t>72.316 km</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Model X 90kWh Dual Motor Performance</t>
+          <t>ROOF 100kWh Dual Motor</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-90kwh-dual-motor-performance-elettrica-nero-b2d30848-646d-4a28-b6b3-df77e5bd0ecd</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-roof-100kwh-dual-motor-elettrica-nero-fd966f5f-fd16-4d66-a10b-4b93bce91140</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66.999</t>
+          <t xml:space="preserve"> 51.790</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>09/2019</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>572 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>70.536 km</t>
+          <t>84.000 km</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Dual Motor awd</t>
+          <t>Model X 100kWh D Long</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-dual-motor-awd-elettrica-grigio-e606b4ed-1baf-45fb-bf76-5345695542ad</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100kwh-d-long-elettrica-grigio-4d908765-eeb2-499d-815f-1d58f85cf22c</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99.800</t>
+          <t xml:space="preserve"> 41.000</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>12/2018</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>469 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>14.900 km</t>
+          <t>135.000 km</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Model X Performance Ludicrous</t>
+          <t>Model X 100 D</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-ludicrous-elettrica-nero-2690e41f-9a4e-4d7f-9e6d-2d08bad6a854</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-elettrica-grigio-67101044-b2f8-4c30-bda3-7679bb1ee07a</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.000</t>
+          <t xml:space="preserve"> 97.000</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09/2016</t>
+          <t>01/2023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>485 CV</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>164.000 km</t>
+          <t>21.000 km</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Model X 75 D</t>
+          <t>Performance Dual Motor Plaid awd 6p.ti</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-75-d-elettrica-bianco-661a1d0a-71fa-4a4d-afee-551d92d7ee26</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-dual-motor-plaid-awd-6p-ti-elettrica-nero-55f2a55c-6d1f-46de-88dc-f440560af64a</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.900</t>
+          <t xml:space="preserve"> 55.900</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>06/2017</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2361,167 +2369,167 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>92.900 km</t>
+          <t>80.386 km</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>100 D 7 Posti, Interni Crema, Power Frunk, TOP IVA</t>
+          <t>P100 D</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-7-posti-interni-crema-power-frunk-top-iva-elettrica-nero-bd0eeb16-5c40-48d8-818a-0fef6b9499a0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-p100-d-elettrica-dca901e3-05dd-4877-a6ae-ff234e9e0635</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 76.990</t>
+          <t xml:space="preserve"> 58.000</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>10/2020</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>68.632 km</t>
+          <t>85.000 km</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>100kWh Dual Motor 6 posti</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-6-posti-elettrica-bianco-cc6879de-07c9-4d4c-862d-619fc64f8952</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-dual-motor-awd-elettrica-blu-azzurro-52bf5be5-25b1-4b1a-907f-a5726c114095</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 57.400</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>178.879 km</t>
+          <t>34.054 km</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Model X Performance-Ludicrous Dual Motor 7posti</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-ludicrous-dual-motor-7posti-elettrica-bianco-cc7a421c-11c4-4e2b-8c66-97429044b30e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-12c07fa6-7997-4873-8ad3-e21a3247897e</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58.900</t>
+          <t xml:space="preserve"> 59.900</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>09/2019</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>245 CV</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>34.054 km</t>
+          <t>128.681 km</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>Performance AWD Raven 7Posti- FSD- gancio traino</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-d4592b1c-4806-45c2-8d97-4d2365949ff8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-awd-raven-7posti-fsd-gancio-traino-elettrica-nero-1cd97414-0615-4630-8c10-89db50353de0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 69.000</t>
+          <t xml:space="preserve"> 63.000</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07/2020</t>
+          <t>12/2018</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>57.000 km</t>
+          <t>125.000 km</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor AWD</t>
+          <t>100 D ricariche gratis</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-dual-motor-awd-elettrica-nero-5b31b0c7-64d5-4c20-8c6c-e5e5911c38d6</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-ricariche-gratis-elettrica-bianco-55a420c4-18b4-4f1c-b925-0d34b7e64c78</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.900</t>
+          <t xml:space="preserve"> 55.000</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>03/2018</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>417 CV</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>96.500 km</t>
+          <t>239.000 km</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2531,243 +2539,243 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-8e61d87b-8766-4bc6-926e-689d8928c4a6</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-nero-51401d58-4e7b-4e07-9429-4e3d62443c0d</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.000</t>
+          <t xml:space="preserve"> 61.900</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>08/2020</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>253 CV</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>113.800 km</t>
+          <t>63.000 km</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Model X P100 D</t>
+          <t>Long Range AWD *GUIDA AUTONOMA*</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-p100-d-elettrica-blu-azzurro-9f09c911-854b-4ca9-afb2-73a413201742</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-guida-autonoma-elettrica-bianco-09088a57-d499-411b-a022-b0363307c316</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 78.200</t>
+          <t xml:space="preserve"> 49.800</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>12/2018</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>500 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>41.000 km</t>
+          <t>108.000 km</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>X 100</t>
+          <t>100 D DUAL MOTOR</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-x-100-elettrica-bianco-d55cbfcc-ba52-4cac-b3e0-fcd6bd60e2dc</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-dual-motor-elettrica-grigio-80044cf3-8573-411f-b1fe-b61b08f8ff19</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50.000</t>
+          <t xml:space="preserve"> 54.400</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>11/2018</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>104.000 km</t>
+          <t>60.285 km</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Long Range Plus awd 7p.ti</t>
+          <t>100kWh Dual Motor</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-plus-awd-7p-ti-elettrica-bianco-7c98a6f7-868f-49fd-97bd-cbd6ee5df1eb</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-elettrica-nero-42e4f47e-620e-4b53-99f7-dfff2519aa09</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 78.000</t>
+          <t xml:space="preserve"> 66.900</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>11/2020</t>
+          <t>07/2020</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>600 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>63.000 km</t>
+          <t>25.000 km</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LONG RANGE Dual motor trazione integrale</t>
+          <t>Model X Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-dual-motor-trazione-integrale-elettrica-bianco-8d0c299a-23b2-4bf0-bfb2-6db5b9e71ce9</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-dual-motor-awd-elettrica-rosso-23d8669c-054d-454a-90d5-4a2ac36af0c2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62.950</t>
+          <t xml:space="preserve"> 69.000</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>07/2020</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>253 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>106.907 km</t>
+          <t>57.000 km</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LONG RANGE AWD - 253cv - KM 106.907 -BIANCA - FULL</t>
+          <t>Long Range Dual Motor AWD</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-253cv-km-106-907-bianca-full-elettrica-bianco-99e080d4-c568-49de-88f1-88f8b7b16aa3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-dual-motor-awd-elettrica-nero-5b31b0c7-64d5-4c20-8c6c-e5e5911c38d6</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 67.500</t>
+          <t xml:space="preserve"> 46.900</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>503 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>75.000 km</t>
+          <t>96.500 km</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>100D Cerchi 22"/6 posti/Tetto</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100d-cerchi-22-6-posti-tetto-elettrica-bianco-f6e9f6a2-58bb-49a9-b517-4c725a8e3dc5</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-deadd448-1f99-4594-8864-bd26fb272d8f</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.900</t>
+          <t xml:space="preserve"> 75.000</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>01/2021</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>147.604 km</t>
+          <t>65.000 km</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>100kWh Dual Motor</t>
+          <t>Performance Ludicrous awd 6p.ti</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-elettrica-bianco-71bad31c-84d6-4094-a534-b9cd90504543</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-ludicrous-awd-6p-ti-elettrica-nero-49e04b4d-058e-48b2-ba0d-abd7cc904e71</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58.900</t>
+          <t xml:space="preserve"> 54.900</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>10/2017</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2777,93 +2785,93 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>34.054 km</t>
+          <t>92.900 km</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>100 D 7 Posti, Interni Crema, Power Frunk, TOP IVA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-fae876c7-a7d6-465c-9258-563ad3de1d6f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-7-posti-interni-crema-power-frunk-top-iva-elettrica-nero-bd0eeb16-5c40-48d8-818a-0fef6b9499a0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58.900</t>
+          <t xml:space="preserve"> 45.000</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>06/2019</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>34.054 km</t>
+          <t>253.000 km</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>Long Range Plus awd</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-576d823b-16b5-4085-b6e2-0870671c7bfe</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-plus-awd-elettrica-blu-azzurro-b98ce214-03ad-4281-b39a-b4b31866555c</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66.000</t>
+          <t xml:space="preserve"> 76.990</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>06/2019</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>450 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>78.000 km</t>
+          <t>68.632 km</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Model X Long Range Plus awd 7posti</t>
+          <t>100kWh Dual Motor 6 posti</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-7posti-elettrica-grigio-0736b722-12f7-40c4-85a8-5eeb21e6467d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-6-posti-elettrica-bianco-cc6879de-07c9-4d4c-862d-619fc64f8952</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.890</t>
+          <t xml:space="preserve"> 61.500</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>06/2020</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2873,253 +2881,253 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>122.475 km</t>
+          <t>120.000 km</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>100 KWH DUAL MOTOR</t>
+          <t>Long Range Plus awd</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-kwh-dual-motor-elettrica-grigio-185a1b05-7eff-4dac-919f-318050c780eb</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-plus-awd-elettrica-grigio-4885decc-33dd-47ff-bd28-c65e2583ead3</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 67.000</t>
+          <t xml:space="preserve"> 46.900</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>72.000 km</t>
+          <t>96.500 km</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Model X Long Range Plus awd 7posti</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-7posti-elettrica-bianco-10ec59ec-e2f1-4bf4-93cd-ba440851f7fd</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-28bf2234-5ce6-4a38-abcf-ebca9be0ed18</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.000</t>
+          <t xml:space="preserve"> 57.470</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>12/2020</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>245 CV</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>127.000 km</t>
+          <t>57.765 km</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>75 D</t>
+          <t>Performance AWD 7 pt</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-75-d-elettrica-bianco-519bc1de-67f1-4723-9a7f-138d858dd1bb</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-awd-7-pt-elettrica-rosso-3c0320be-830c-4477-85d0-33886c4620e8</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 69.000</t>
+          <t xml:space="preserve"> 66.200</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>01/2019</t>
+          <t>05/2018</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>503 CV</t>
+          <t>500 CV</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>76.500 km</t>
+          <t>41.000 km</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>100 D - 6 Posti</t>
+          <t>X 100</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-6-posti-elettrica-bianco-4ea2e8ee-a443-4e51-b592-7ebd1dd2ef3b</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-x-100-elettrica-bianco-d55cbfcc-ba52-4cac-b3e0-fcd6bd60e2dc</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57.900</t>
+          <t xml:space="preserve"> 76.000</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>11/2020</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>600 CV</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>109.433 km</t>
+          <t>70.000 km</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>LONG RANGE Dual motor trazione integrale</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-8e6d9121-3c34-496f-b64f-f75e37341f07</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-dual-motor-trazione-integrale-elettrica-bianco-8d0c299a-23b2-4bf0-bfb2-6db5b9e71ce9</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.900</t>
+          <t xml:space="preserve"> 68.000</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>04/2020</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>96.693 km</t>
+          <t>37.500 km</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>100 d</t>
+          <t>Long Range Plus awd 6p.ti</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-46951388-f5c8-49f5-86ad-09d2ead3e9fb</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-plus-awd-6p-ti-elettrica-blu-azzurro-411fe852-385d-4c2c-beef-ca26b279b064</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80.000</t>
+          <t xml:space="preserve"> 57.400</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>180.000 km</t>
+          <t>34.054 km</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Long Range Plus awd 6p.ti</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-plus-awd-6p-ti-elettrica-bianco-f2679743-f848-4fe1-8f25-cf664420bceb</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-576d823b-16b5-4085-b6e2-0870671c7bfe</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 75.000</t>
+          <t xml:space="preserve"> 129.000</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>06/2023</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>485 CV</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>111.000 km</t>
+          <t>30.000 km</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Long Range Plus awd 7p.ti</t>
+          <t>Plaid</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-plus-awd-7p-ti-elettrica-nero-3b91e897-b0e8-464a-a547-4e237cdcd892</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-plaid-elettrica-nero-c97f3032-d20c-49de-bce3-7486b356d8bb</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57.900</t>
+          <t xml:space="preserve"> 43.900</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>06/2018</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3129,7 +3137,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>109.433 km</t>
+          <t>119.412 km</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3139,179 +3147,179 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-6f764f1f-3a6f-445f-9b35-5cfb6546dca2</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-nero-7b2d8b69-5215-4615-90f2-b3934ffbe7bb</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 69.000</t>
+          <t xml:space="preserve"> 71.700</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>06/2018</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>333 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>116.000 km</t>
+          <t>43.000 km</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>75d</t>
+          <t>Model X P100 D</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-75d-elettrica-bianco-f8a55775-b4e5-45fc-8483-f907ec949964</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-p100-d-elettrica-nero-bb9ec688-e864-4072-a7dc-79946a6fcaf9</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57.900</t>
+          <t xml:space="preserve"> 66.000</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>02/2020</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>450 CV</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>109.433 km</t>
+          <t>78.000 km</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>Model X Long Range Plus awd 7posti</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-af00f892-f4fb-409c-9f3e-6ec9ed92c243</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-7posti-elettrica-grigio-0736b722-12f7-40c4-85a8-5eeb21e6467d</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79.000</t>
+          <t xml:space="preserve"> 69.000</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>01/2019</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>795 CV</t>
+          <t>503 CV</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>107.000 km</t>
+          <t>76.500 km</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>100 D - 6 Posti</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-elettrica-bianco-7a6a1259-d437-449e-952b-eaf892fe6d31</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-6-posti-elettrica-bianco-4ea2e8ee-a443-4e51-b592-7ebd1dd2ef3b</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47.900</t>
+          <t xml:space="preserve"> 52.900</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>07/2017</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>517 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>24.000 km</t>
+          <t>96.000 km</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>158 KW 215 CV LR</t>
+          <t>Model X 100 D*6 POSTI*DUAL MOTOR*</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-158-kw-215-cv-lr-elettrica-nero-ebfcb14a-cc20-46cd-a616-a490c7cb961d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-100-d-6-posti-dual-motor-elettrica-blu-azzurro-c2dc2648-aadb-439e-85f9-53ac75eeddaf</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51.000</t>
+          <t xml:space="preserve"> 75.400</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>03/2021</t>
+          <t>01/2020</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>544 CV</t>
+          <t>245 CV</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>138.000 km</t>
+          <t>100.000 km</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Performance Dual Motor awd 7p.ti</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-dual-motor-awd-7p-ti-elettrica-blu-azzurro-28abd8a1-3f45-48b6-b74b-c13c29a4ee0d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-awd-elettrica-grigio-68323e30-c56a-487e-ab58-ce2728693e61</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.000</t>
+          <t xml:space="preserve"> 52.000</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>01/2018</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3321,61 +3329,61 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>101.000 km</t>
+          <t>113.800 km</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>90 D</t>
+          <t>Model X P100 D</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-90-d-elettrica-argento-66ab0f94-b624-43c4-b467-d2b8f8f916fc</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-p100-d-elettrica-blu-azzurro-9f09c911-854b-4ca9-afb2-73a413201742</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.000</t>
+          <t xml:space="preserve"> 57.400</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>12/2016</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>143.000 km</t>
+          <t>34.054 km</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>90kWh Signature Performance Dual Motor</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-90kwh-signature-performance-dual-motor-elettrica-verde-50d6de96-d92a-43d3-b9d7-b5c8ab2067cc</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-fae876c7-a7d6-465c-9258-563ad3de1d6f</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43.000</t>
+          <t xml:space="preserve"> 67.000</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>12/2020</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3385,103 +3393,103 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>117.000 km</t>
+          <t>72.000 km</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Long Range Plus awd 7 p.ti</t>
+          <t>Model X Long Range Plus awd 7posti</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-plus-awd-7-p-ti-elettrica-bianco-93dfa602-ad0e-4835-9066-c054e0acb5d3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-long-range-plus-awd-7posti-elettrica-bianco-10ec59ec-e2f1-4bf4-93cd-ba440851f7fd</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41.900</t>
+          <t xml:space="preserve"> 99.800</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>12/2020</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>469 CV</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>45.130 km</t>
+          <t>14.900 km</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>75 D</t>
+          <t>Model X Performance Ludicrous</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-75-d-elettrica-bianco-23ccd4db-5183-43bc-bcf1-7625b002cd77</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-ludicrous-elettrica-nero-2690e41f-9a4e-4d7f-9e6d-2d08bad6a854</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35.400</t>
+          <t xml:space="preserve"> 69.000</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>09/2016</t>
+          <t>12/2018</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>167.800 km</t>
+          <t>69.000 km</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>90kWh 90D 90 D 7 POSTI Dual Motor</t>
+          <t>100D Dual Motor Perform *GARANZIA UFFICIALE TESLA*</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-90kwh-90d-90-d-7-posti-dual-motor-elettrica-nero-f514b270-105c-43a2-8797-b8a10a2ef10b</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100d-dual-motor-perform-garanzia-ufficiale-tesla-elettrica-nero-a6609a5d-fbb6-44d5-be39-458e86a578c1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33.500</t>
+          <t xml:space="preserve"> 46.900</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>421 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>201.500 km</t>
+          <t>96.500 km</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3491,19 +3499,19 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-a80e3046-0865-40c6-931d-6c08ea741d6f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-c2e2d138-37b5-46c6-af01-b2cc28450f28</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.900</t>
+          <t xml:space="preserve"> 57.400</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3513,49 +3521,945 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>110.000 km</t>
+          <t>34.054 km</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>P100D PERFORMANCE 900 CV  Ricariche Gratuite</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-p100d-performance-900-cv-ricariche-gratuite-elettrica-nero-bc10dd22-3144-4784-ac92-c161f7940e4c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-c1fa404f-19db-48f4-a8bf-beb9b8831673</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33.900</t>
+          <t xml:space="preserve"> 46.900</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>09/2016</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>96.500 km</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-34b17ca9-6b91-444b-8aff-cefeef49ac32</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57.470</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>12/2020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>245 CV</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>57.765 km</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Performance AWD 7 pt</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-performance-awd-7-pt-elettrica-rosso-b15a62b1-d7fb-4003-9d3e-0f18d1e7462f</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.400</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>109.433 km</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-e2239e2f-851b-45d3-bd58-3ecaaf4e7190</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 45.000</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>12/2018</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>184 CV</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>127.000 km</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>75 D</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-75-d-elettrica-bianco-519bc1de-67f1-4723-9a7f-138d858dd1bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 55.900</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>06/2018</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>96.693 km</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>100 d</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-46951388-f5c8-49f5-86ad-09d2ead3e9fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 79.000</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>562 CV</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>60.000 km</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Max Range</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-max-range-elettrica-nero-3e769e40-3396-425b-8e16-f6afb1c2b937</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 65.000</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>12/2020</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>230 CV</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>100.000 km</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Model X Performance Dual Motor awd</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-model-x-performance-dual-motor-awd-elettrica-bianco-36958a8c-ec3c-4472-85f4-0ef939a12065</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57.400</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>04/2019</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>34.054 km</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-40755578-144a-446b-a1f5-7fe9700595c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48.900</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>215 CV</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>167.800 km</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>90kWh 90D 90 D 7 POSTI Dual Motor</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-x-90kwh-90d-90-d-7-posti-dual-motor-elettrica-nero-1e0314ca-0499-430f-a4a8-52a8f638102f</t>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>147.604 km</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>100kWh Dual Motor</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100kwh-dual-motor-elettrica-bianco-71bad31c-84d6-4094-a534-b9cd90504543</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 46.900</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>96.500 km</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-46618622-0fe8-43fe-a160-f7098da2f37f</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 46.900</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>96.500 km</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-03f183ea-0983-4815-b24b-82377f77b3bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 78.000</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>02/2019</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>612 CV</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>107.396 km</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>P100 D</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-p100-d-elettrica-grigio-cc58f01f-f139-441f-91e1-26b6782b5e56</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 69.000</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>03/2019</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>333 CV</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>116.000 km</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>75d</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-75d-elettrica-bianco-f8a55775-b4e5-45fc-8483-f907ec949964</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.400</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>109.433 km</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-621bd907-9fd9-41ab-b31d-4bf49de0eb91</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57.400</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>04/2019</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>34.054 km</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-89c7af0d-89c0-4b8a-ae3a-860329a71dfe</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.400</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>109.433 km</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-21f32179-32e6-4068-8fed-254d05b92e86</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.400</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>109.433 km</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-12442a02-5a22-4fa1-8798-77a650250692</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.400</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>109.433 km</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-87211ad6-0a08-4d95-ba38-d4b8b5e26fb1</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 46.900</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>96.500 km</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-f0b0a7c9-d308-4b0b-b990-35e6ec91a328</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57.400</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>04/2019</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>34.054 km</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-67f10583-685d-42af-ab49-abc1b3fdf4c6</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 79.000</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>12/2020</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>795 CV</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>107.000 km</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Long Range</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-elettrica-bianco-7a6a1259-d437-449e-952b-eaf892fe6d31</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57.400</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>04/2019</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>34.054 km</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-1348d5a4-7086-4669-bf70-4dc62e0f6146</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57.400</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>04/2019</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>34.054 km</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-blu-azzurro-b95b9f75-8c6e-4102-abb2-b7498aa062ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.400</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>109.433 km</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-8e6d9121-3c34-496f-b64f-f75e37341f07</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.400</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>109.433 km</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-36de08bb-67a0-4773-966a-56ed278137df</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.400</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>109.433 km</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-af00f892-f4fb-409c-9f3e-6ec9ed92c243</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.400</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>109.433 km</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-100-d-elettrica-bianco-e905c1e6-8706-4fe4-9019-c9bf10df4174</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80.000</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>12/2019</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>215 CV</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>180.000 km</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Long Range Plus awd 6p.ti</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-long-range-plus-awd-6p-ti-elettrica-bianco-f2679743-f848-4fe1-8f25-cf664420bceb</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28.000</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>01/2018</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>324.255 km</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>D P100 D</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-x-d-p100-d-elettrica-bianco-fc1568d5-aba5-424a-accd-f4f72333cb74</t>
         </is>
       </c>
     </row>
